--- a/Income/ANTM_inc.xlsx
+++ b/Income/ANTM_inc.xlsx
@@ -2167,7 +2167,7 @@
         <v>0.0523</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0437</v>
+        <v>0.0438</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.0461</v>
@@ -3909,7 +3909,7 @@
         <v>0.0673</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.0736</v>
+        <v>0.0737</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0.0859</v>
